--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_36ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_36ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2577,28 +2577,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>487.0054508378766</v>
+        <v>633.799104474321</v>
       </c>
       <c r="AB2" t="n">
-        <v>666.3423430005279</v>
+        <v>867.1918959848507</v>
       </c>
       <c r="AC2" t="n">
-        <v>602.7475650019089</v>
+        <v>784.4283185435261</v>
       </c>
       <c r="AD2" t="n">
-        <v>487005.4508378766</v>
+        <v>633799.104474321</v>
       </c>
       <c r="AE2" t="n">
-        <v>666342.3430005278</v>
+        <v>867191.8959848507</v>
       </c>
       <c r="AF2" t="n">
         <v>5.47850006509232e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.64583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>602747.5650019089</v>
+        <v>784428.3185435261</v>
       </c>
     </row>
     <row r="3">
@@ -2683,28 +2683,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>324.126757508249</v>
+        <v>431.7663260633</v>
       </c>
       <c r="AB3" t="n">
-        <v>443.4845290861231</v>
+        <v>590.7617355057605</v>
       </c>
       <c r="AC3" t="n">
-        <v>401.1589880645886</v>
+        <v>534.3802646083932</v>
       </c>
       <c r="AD3" t="n">
-        <v>324126.757508249</v>
+        <v>431766.3260633</v>
       </c>
       <c r="AE3" t="n">
-        <v>443484.5290861231</v>
+        <v>590761.7355057605</v>
       </c>
       <c r="AF3" t="n">
         <v>7.518020881403916e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.87962962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>401158.9880645886</v>
+        <v>534380.2646083932</v>
       </c>
     </row>
     <row r="4">
@@ -2789,28 +2789,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>284.1115027928445</v>
+        <v>381.9625500775472</v>
       </c>
       <c r="AB4" t="n">
-        <v>388.7338922360607</v>
+        <v>522.6180120145268</v>
       </c>
       <c r="AC4" t="n">
-        <v>351.6336751524947</v>
+        <v>472.7400824468462</v>
       </c>
       <c r="AD4" t="n">
-        <v>284111.5027928445</v>
+        <v>381962.5500775472</v>
       </c>
       <c r="AE4" t="n">
-        <v>388733.8922360607</v>
+        <v>522618.0120145268</v>
       </c>
       <c r="AF4" t="n">
         <v>8.320946596389353e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.86574074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>351633.6751524947</v>
+        <v>472740.0824468462</v>
       </c>
     </row>
     <row r="5">
@@ -2895,28 +2895,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>263.9598035994408</v>
+        <v>361.7766854653627</v>
       </c>
       <c r="AB5" t="n">
-        <v>361.1614483694219</v>
+        <v>494.9988215146402</v>
       </c>
       <c r="AC5" t="n">
-        <v>326.6927066303199</v>
+        <v>447.7568287244914</v>
       </c>
       <c r="AD5" t="n">
-        <v>263959.8035994408</v>
+        <v>361776.6854653627</v>
       </c>
       <c r="AE5" t="n">
-        <v>361161.4483694219</v>
+        <v>494998.8215146402</v>
       </c>
       <c r="AF5" t="n">
         <v>8.753937950543803e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.92824074074074</v>
       </c>
       <c r="AH5" t="n">
-        <v>326692.7066303199</v>
+        <v>447756.8287244914</v>
       </c>
     </row>
     <row r="6">
@@ -3001,28 +3001,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>256.5861523928667</v>
+        <v>344.5813585995198</v>
       </c>
       <c r="AB6" t="n">
-        <v>351.0724934858887</v>
+        <v>471.4714166925122</v>
       </c>
       <c r="AC6" t="n">
-        <v>317.5666274410396</v>
+        <v>426.4748463976674</v>
       </c>
       <c r="AD6" t="n">
-        <v>256586.1523928667</v>
+        <v>344581.3585995198</v>
       </c>
       <c r="AE6" t="n">
-        <v>351072.4934858887</v>
+        <v>471471.4166925122</v>
       </c>
       <c r="AF6" t="n">
         <v>9.034778882098411e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.37268518518519</v>
       </c>
       <c r="AH6" t="n">
-        <v>317566.6274410396</v>
+        <v>426474.8463976674</v>
       </c>
     </row>
     <row r="7">
@@ -3107,28 +3107,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>254.5402872060268</v>
+        <v>342.5354934126799</v>
       </c>
       <c r="AB7" t="n">
-        <v>348.2732504800538</v>
+        <v>468.6721736866758</v>
       </c>
       <c r="AC7" t="n">
-        <v>315.0345402589185</v>
+        <v>423.9427592155458</v>
       </c>
       <c r="AD7" t="n">
-        <v>254540.2872060268</v>
+        <v>342535.4934126799</v>
       </c>
       <c r="AE7" t="n">
-        <v>348273.2504800538</v>
+        <v>468672.1736866758</v>
       </c>
       <c r="AF7" t="n">
         <v>9.097022236798346e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.25694444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>315034.5402589185</v>
+        <v>423942.7592155458</v>
       </c>
     </row>
     <row r="8">
@@ -3213,28 +3213,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>254.8567332231698</v>
+        <v>342.8519394298228</v>
       </c>
       <c r="AB8" t="n">
-        <v>348.7062258813216</v>
+        <v>469.1051490879439</v>
       </c>
       <c r="AC8" t="n">
-        <v>315.4261930955742</v>
+        <v>424.3344120522016</v>
       </c>
       <c r="AD8" t="n">
-        <v>254856.7332231698</v>
+        <v>342851.9394298228</v>
       </c>
       <c r="AE8" t="n">
-        <v>348706.2258813216</v>
+        <v>469105.1490879438</v>
       </c>
       <c r="AF8" t="n">
         <v>9.095394959551289e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.25694444444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>315426.1930955742</v>
+        <v>424334.4120522016</v>
       </c>
     </row>
   </sheetData>
@@ -3510,28 +3510,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>400.661387452856</v>
+        <v>516.7948228652298</v>
       </c>
       <c r="AB2" t="n">
-        <v>548.2025862459082</v>
+        <v>707.1014760226936</v>
       </c>
       <c r="AC2" t="n">
-        <v>495.8829008217601</v>
+        <v>639.6167035742416</v>
       </c>
       <c r="AD2" t="n">
-        <v>400661.3874528561</v>
+        <v>516794.8228652298</v>
       </c>
       <c r="AE2" t="n">
-        <v>548202.5862459082</v>
+        <v>707101.4760226937</v>
       </c>
       <c r="AF2" t="n">
         <v>6.853747013869115e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.05787037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>495882.9008217601</v>
+        <v>639616.7035742416</v>
       </c>
     </row>
     <row r="3">
@@ -3616,28 +3616,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>287.2187066347915</v>
+        <v>383.9227129093874</v>
       </c>
       <c r="AB3" t="n">
-        <v>392.9853056127715</v>
+        <v>525.2999932773315</v>
       </c>
       <c r="AC3" t="n">
-        <v>355.4793396034284</v>
+        <v>475.1660991821132</v>
       </c>
       <c r="AD3" t="n">
-        <v>287218.7066347915</v>
+        <v>383922.7129093874</v>
       </c>
       <c r="AE3" t="n">
-        <v>392985.3056127715</v>
+        <v>525299.9932773315</v>
       </c>
       <c r="AF3" t="n">
         <v>8.887569843405256e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.3287037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>355479.3396034284</v>
+        <v>475166.0991821132</v>
       </c>
     </row>
     <row r="4">
@@ -3722,28 +3722,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>253.3370376510182</v>
+        <v>350.0741983145409</v>
       </c>
       <c r="AB4" t="n">
-        <v>346.626911355268</v>
+        <v>478.9869623175898</v>
       </c>
       <c r="AC4" t="n">
-        <v>313.5453254295502</v>
+        <v>433.273118896422</v>
       </c>
       <c r="AD4" t="n">
-        <v>253337.0376510182</v>
+        <v>350074.1983145409</v>
       </c>
       <c r="AE4" t="n">
-        <v>346626.911355268</v>
+        <v>478986.9623175898</v>
       </c>
       <c r="AF4" t="n">
         <v>9.609282416751999e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.87037037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>313545.3254295502</v>
+        <v>433273.118896422</v>
       </c>
     </row>
     <row r="5">
@@ -3828,28 +3828,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>244.9139669590439</v>
+        <v>322.3252057709882</v>
       </c>
       <c r="AB5" t="n">
-        <v>335.1020944348618</v>
+        <v>441.0195665203496</v>
       </c>
       <c r="AC5" t="n">
-        <v>303.1204208608418</v>
+        <v>398.9292780664959</v>
       </c>
       <c r="AD5" t="n">
-        <v>244913.9669590439</v>
+        <v>322325.2057709883</v>
       </c>
       <c r="AE5" t="n">
-        <v>335102.0944348618</v>
+        <v>441019.5665203496</v>
       </c>
       <c r="AF5" t="n">
         <v>1.000886546774352e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.15277777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>303120.4208608418</v>
+        <v>398929.2780664959</v>
       </c>
     </row>
     <row r="6">
@@ -3934,28 +3934,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>245.2003545161642</v>
+        <v>332.223811640655</v>
       </c>
       <c r="AB6" t="n">
-        <v>335.4939425250409</v>
+        <v>454.5632757668983</v>
       </c>
       <c r="AC6" t="n">
-        <v>303.4748715192566</v>
+        <v>411.1803947112692</v>
       </c>
       <c r="AD6" t="n">
-        <v>245200.3545161642</v>
+        <v>332223.811640655</v>
       </c>
       <c r="AE6" t="n">
-        <v>335493.9425250409</v>
+        <v>454563.2757668983</v>
       </c>
       <c r="AF6" t="n">
         <v>1.000545276437449e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.16435185185185</v>
       </c>
       <c r="AH6" t="n">
-        <v>303474.8715192566</v>
+        <v>411180.3947112692</v>
       </c>
     </row>
   </sheetData>
@@ -4231,28 +4231,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>238.4875427072447</v>
+        <v>332.0081946857321</v>
       </c>
       <c r="AB2" t="n">
-        <v>326.309177259726</v>
+        <v>454.268259136824</v>
       </c>
       <c r="AC2" t="n">
-        <v>295.1666873599613</v>
+        <v>410.9135340543108</v>
       </c>
       <c r="AD2" t="n">
-        <v>238487.5427072447</v>
+        <v>332008.1946857321</v>
       </c>
       <c r="AE2" t="n">
-        <v>326309.177259726</v>
+        <v>454268.259136824</v>
       </c>
       <c r="AF2" t="n">
         <v>1.287027645798696e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.62268518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>295166.6873599613</v>
+        <v>410913.5340543108</v>
       </c>
     </row>
     <row r="3">
@@ -4337,28 +4337,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>222.5632761578579</v>
+        <v>306.7626118153993</v>
       </c>
       <c r="AB3" t="n">
-        <v>304.5208932378077</v>
+        <v>419.7261388971235</v>
       </c>
       <c r="AC3" t="n">
-        <v>275.4578465850394</v>
+        <v>379.6680652901171</v>
       </c>
       <c r="AD3" t="n">
-        <v>222563.2761578579</v>
+        <v>306762.6118153993</v>
       </c>
       <c r="AE3" t="n">
-        <v>304520.8932378077</v>
+        <v>419726.1388971235</v>
       </c>
       <c r="AF3" t="n">
         <v>1.353280243618438e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.70833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>275457.8465850393</v>
+        <v>379668.0652901171</v>
       </c>
     </row>
   </sheetData>
@@ -4634,28 +4634,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>286.7527350853518</v>
+        <v>391.0268410798388</v>
       </c>
       <c r="AB2" t="n">
-        <v>392.3477427816142</v>
+        <v>535.0201748521584</v>
       </c>
       <c r="AC2" t="n">
-        <v>354.9026248740516</v>
+        <v>483.9586002697991</v>
       </c>
       <c r="AD2" t="n">
-        <v>286752.7350853518</v>
+        <v>391026.8410798388</v>
       </c>
       <c r="AE2" t="n">
-        <v>392347.7427816142</v>
+        <v>535020.1748521584</v>
       </c>
       <c r="AF2" t="n">
         <v>1.004998822123279e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.65972222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>354902.6248740517</v>
+        <v>483958.6002697991</v>
       </c>
     </row>
     <row r="3">
@@ -4740,28 +4740,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>230.948047074243</v>
+        <v>316.1896930040706</v>
       </c>
       <c r="AB3" t="n">
-        <v>315.993306715586</v>
+        <v>432.6246872729333</v>
       </c>
       <c r="AC3" t="n">
-        <v>285.8353490221356</v>
+        <v>391.3355943121659</v>
       </c>
       <c r="AD3" t="n">
-        <v>230948.047074243</v>
+        <v>316189.6930040707</v>
       </c>
       <c r="AE3" t="n">
-        <v>315993.306715586</v>
+        <v>432624.6872729333</v>
       </c>
       <c r="AF3" t="n">
         <v>1.191650428116622e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.41898148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>285835.3490221355</v>
+        <v>391335.5943121659</v>
       </c>
     </row>
     <row r="4">
@@ -4846,28 +4846,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>230.470922219384</v>
+        <v>315.7125681492116</v>
       </c>
       <c r="AB4" t="n">
-        <v>315.3404834399051</v>
+        <v>431.9718639972521</v>
       </c>
       <c r="AC4" t="n">
-        <v>285.2448302836423</v>
+        <v>390.7450755736725</v>
       </c>
       <c r="AD4" t="n">
-        <v>230470.922219384</v>
+        <v>315712.5681492116</v>
       </c>
       <c r="AE4" t="n">
-        <v>315340.4834399052</v>
+        <v>431971.8639972521</v>
       </c>
       <c r="AF4" t="n">
         <v>1.198483738569535e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.31481481481482</v>
       </c>
       <c r="AH4" t="n">
-        <v>285244.8302836423</v>
+        <v>390745.0755736725</v>
       </c>
     </row>
   </sheetData>
@@ -5143,28 +5143,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>226.13106390994</v>
+        <v>309.324932822833</v>
       </c>
       <c r="AB2" t="n">
-        <v>309.4024978398909</v>
+        <v>423.2320195411189</v>
       </c>
       <c r="AC2" t="n">
-        <v>279.8735576952764</v>
+        <v>382.839349605984</v>
       </c>
       <c r="AD2" t="n">
-        <v>226131.06390994</v>
+        <v>309324.932822833</v>
       </c>
       <c r="AE2" t="n">
-        <v>309402.4978398909</v>
+        <v>423232.0195411189</v>
       </c>
       <c r="AF2" t="n">
         <v>1.49354206770369e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.37962962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>279873.5576952763</v>
+        <v>382839.3496059839</v>
       </c>
     </row>
   </sheetData>
@@ -5440,28 +5440,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>413.4724742915944</v>
+        <v>549.3291452376076</v>
       </c>
       <c r="AB2" t="n">
-        <v>565.7312804439326</v>
+        <v>751.6163712055846</v>
       </c>
       <c r="AC2" t="n">
-        <v>511.7386810472019</v>
+        <v>679.8831596379252</v>
       </c>
       <c r="AD2" t="n">
-        <v>413472.4742915944</v>
+        <v>549329.1452376075</v>
       </c>
       <c r="AE2" t="n">
-        <v>565731.2804439326</v>
+        <v>751616.3712055846</v>
       </c>
       <c r="AF2" t="n">
         <v>6.47359327186933e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.89120370370371</v>
       </c>
       <c r="AH2" t="n">
-        <v>511738.6810472019</v>
+        <v>679883.1596379252</v>
       </c>
     </row>
     <row r="3">
@@ -5546,28 +5546,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>294.0800779387271</v>
+        <v>391.1693649269948</v>
       </c>
       <c r="AB3" t="n">
-        <v>402.3733365331544</v>
+        <v>535.2151822675455</v>
       </c>
       <c r="AC3" t="n">
-        <v>363.9713900289541</v>
+        <v>484.1349964511563</v>
       </c>
       <c r="AD3" t="n">
-        <v>294080.0779387271</v>
+        <v>391169.3649269948</v>
       </c>
       <c r="AE3" t="n">
-        <v>402373.3365331544</v>
+        <v>535215.1822675455</v>
       </c>
       <c r="AF3" t="n">
         <v>8.496075340836895e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.72222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>363971.3900289541</v>
+        <v>484134.9964511563</v>
       </c>
     </row>
     <row r="4">
@@ -5652,28 +5652,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>268.2015491612485</v>
+        <v>355.5145876429849</v>
       </c>
       <c r="AB4" t="n">
-        <v>366.9651917796943</v>
+        <v>486.4307430098048</v>
       </c>
       <c r="AC4" t="n">
-        <v>331.9425489151209</v>
+        <v>440.0064756067839</v>
       </c>
       <c r="AD4" t="n">
-        <v>268201.5491612485</v>
+        <v>355514.5876429849</v>
       </c>
       <c r="AE4" t="n">
-        <v>366965.1917796943</v>
+        <v>486430.7430098048</v>
       </c>
       <c r="AF4" t="n">
         <v>9.261745814827477e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.09027777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>331942.5489151209</v>
+        <v>440006.4756067839</v>
       </c>
     </row>
     <row r="5">
@@ -5758,28 +5758,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>249.3894471391664</v>
+        <v>336.6683202021252</v>
       </c>
       <c r="AB5" t="n">
-        <v>341.225643861553</v>
+        <v>460.6444484585809</v>
       </c>
       <c r="AC5" t="n">
-        <v>308.659547324707</v>
+        <v>416.6811888162371</v>
       </c>
       <c r="AD5" t="n">
-        <v>249389.4471391664</v>
+        <v>336668.3202021252</v>
       </c>
       <c r="AE5" t="n">
-        <v>341225.6438615529</v>
+        <v>460644.4484585809</v>
       </c>
       <c r="AF5" t="n">
         <v>9.67730448736019e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.31481481481482</v>
       </c>
       <c r="AH5" t="n">
-        <v>308659.547324707</v>
+        <v>416681.1888162371</v>
       </c>
     </row>
     <row r="6">
@@ -5864,28 +5864,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>247.4865339632376</v>
+        <v>334.7654070261964</v>
       </c>
       <c r="AB6" t="n">
-        <v>338.6219941036441</v>
+        <v>458.0407987006707</v>
       </c>
       <c r="AC6" t="n">
-        <v>306.3043862454467</v>
+        <v>414.3260277369765</v>
       </c>
       <c r="AD6" t="n">
-        <v>247486.5339632376</v>
+        <v>334765.4070261964</v>
       </c>
       <c r="AE6" t="n">
-        <v>338621.994103644</v>
+        <v>458040.7987006707</v>
       </c>
       <c r="AF6" t="n">
         <v>9.743909710135467e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.19907407407407</v>
       </c>
       <c r="AH6" t="n">
-        <v>306304.3862454467</v>
+        <v>414326.0277369765</v>
       </c>
     </row>
     <row r="7">
@@ -5970,28 +5970,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>247.7870642000971</v>
+        <v>335.0659372630558</v>
       </c>
       <c r="AB7" t="n">
-        <v>339.0331928321733</v>
+        <v>458.4519974292002</v>
       </c>
       <c r="AC7" t="n">
-        <v>306.6763407444464</v>
+        <v>414.6979822359762</v>
       </c>
       <c r="AD7" t="n">
-        <v>247787.0642000971</v>
+        <v>335065.9372630558</v>
       </c>
       <c r="AE7" t="n">
-        <v>339033.1928321733</v>
+        <v>458451.9974292002</v>
       </c>
       <c r="AF7" t="n">
         <v>9.742606564472472e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.19907407407407</v>
       </c>
       <c r="AH7" t="n">
-        <v>306676.3407444464</v>
+        <v>414697.9822359761</v>
       </c>
     </row>
   </sheetData>
@@ -6267,28 +6267,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>222.9502617068013</v>
+        <v>314.8112799193082</v>
       </c>
       <c r="AB2" t="n">
-        <v>305.0503839384692</v>
+        <v>430.7386816790678</v>
       </c>
       <c r="AC2" t="n">
-        <v>275.9368034363748</v>
+        <v>389.6295864451534</v>
       </c>
       <c r="AD2" t="n">
-        <v>222950.2617068012</v>
+        <v>314811.2799193082</v>
       </c>
       <c r="AE2" t="n">
-        <v>305050.3839384692</v>
+        <v>430738.6816790678</v>
       </c>
       <c r="AF2" t="n">
         <v>1.584817455796362e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.95833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>275936.8034363748</v>
+        <v>389629.5864451535</v>
       </c>
     </row>
   </sheetData>
@@ -6564,28 +6564,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>336.5560853110794</v>
+        <v>451.5832452954152</v>
       </c>
       <c r="AB2" t="n">
-        <v>460.4908837291981</v>
+        <v>617.8761186599146</v>
       </c>
       <c r="AC2" t="n">
-        <v>416.5422800890972</v>
+        <v>558.9068890895907</v>
       </c>
       <c r="AD2" t="n">
-        <v>336556.0853110794</v>
+        <v>451583.2452954152</v>
       </c>
       <c r="AE2" t="n">
-        <v>460490.8837291981</v>
+        <v>617876.1186599146</v>
       </c>
       <c r="AF2" t="n">
         <v>8.213715186786201e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.73148148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>416542.2800890972</v>
+        <v>558906.8890895906</v>
       </c>
     </row>
     <row r="3">
@@ -6670,28 +6670,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>259.512434166138</v>
+        <v>345.741108410771</v>
       </c>
       <c r="AB3" t="n">
-        <v>355.076361306685</v>
+        <v>473.0582375488167</v>
       </c>
       <c r="AC3" t="n">
-        <v>321.1883717363772</v>
+        <v>427.9102232985633</v>
       </c>
       <c r="AD3" t="n">
-        <v>259512.4341661379</v>
+        <v>345741.108410771</v>
       </c>
       <c r="AE3" t="n">
-        <v>355076.361306685</v>
+        <v>473058.2375488168</v>
       </c>
       <c r="AF3" t="n">
         <v>1.016513605901271e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.36805555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>321188.3717363772</v>
+        <v>427910.2232985633</v>
       </c>
     </row>
     <row r="4">
@@ -6776,28 +6776,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>237.8969689402749</v>
+        <v>324.0914777661301</v>
       </c>
       <c r="AB4" t="n">
-        <v>325.5011281774825</v>
+        <v>443.4362577865236</v>
       </c>
       <c r="AC4" t="n">
-        <v>294.4357573480229</v>
+        <v>401.1153237100737</v>
       </c>
       <c r="AD4" t="n">
-        <v>237896.9689402749</v>
+        <v>324091.4777661301</v>
       </c>
       <c r="AE4" t="n">
-        <v>325501.1281774825</v>
+        <v>443436.2577865237</v>
       </c>
       <c r="AF4" t="n">
         <v>1.086164568327082e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.1875</v>
       </c>
       <c r="AH4" t="n">
-        <v>294435.7573480229</v>
+        <v>401115.3237100737</v>
       </c>
     </row>
     <row r="5">
@@ -6882,28 +6882,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>238.1113167022122</v>
+        <v>324.3058255280674</v>
       </c>
       <c r="AB5" t="n">
-        <v>325.7944082417208</v>
+        <v>443.729537850762</v>
       </c>
       <c r="AC5" t="n">
-        <v>294.7010471745515</v>
+        <v>401.3806135366024</v>
       </c>
       <c r="AD5" t="n">
-        <v>238111.3167022121</v>
+        <v>324305.8255280674</v>
       </c>
       <c r="AE5" t="n">
-        <v>325794.4082417208</v>
+        <v>443729.537850762</v>
       </c>
       <c r="AF5" t="n">
         <v>1.085680544960676e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.19907407407407</v>
       </c>
       <c r="AH5" t="n">
-        <v>294701.0471745515</v>
+        <v>401380.6135366024</v>
       </c>
     </row>
   </sheetData>
@@ -7179,28 +7179,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>378.417459497184</v>
+        <v>494.163224890639</v>
       </c>
       <c r="AB2" t="n">
-        <v>517.7674626841153</v>
+        <v>676.1359252382218</v>
       </c>
       <c r="AC2" t="n">
-        <v>468.3524627367404</v>
+        <v>611.6064614962164</v>
       </c>
       <c r="AD2" t="n">
-        <v>378417.459497184</v>
+        <v>494163.224890639</v>
       </c>
       <c r="AE2" t="n">
-        <v>517767.4626841154</v>
+        <v>676135.9252382219</v>
       </c>
       <c r="AF2" t="n">
         <v>7.274219097315699e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.23611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>468352.4627367405</v>
+        <v>611606.4614962164</v>
       </c>
     </row>
     <row r="3">
@@ -7285,28 +7285,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>271.3800975789784</v>
+        <v>367.8568364944971</v>
       </c>
       <c r="AB3" t="n">
-        <v>371.3142219524918</v>
+        <v>503.317952390034</v>
       </c>
       <c r="AC3" t="n">
-        <v>335.8765137521287</v>
+        <v>455.2819934251112</v>
       </c>
       <c r="AD3" t="n">
-        <v>271380.0975789784</v>
+        <v>367856.8364944971</v>
       </c>
       <c r="AE3" t="n">
-        <v>371314.2219524918</v>
+        <v>503317.952390034</v>
       </c>
       <c r="AF3" t="n">
         <v>9.284775792024416e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.98148148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>335876.5137521288</v>
+        <v>455281.9934251112</v>
       </c>
     </row>
     <row r="4">
@@ -7391,28 +7391,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>247.6816260059013</v>
+        <v>334.5414399067739</v>
       </c>
       <c r="AB4" t="n">
-        <v>338.8889276432699</v>
+        <v>457.7343570071449</v>
       </c>
       <c r="AC4" t="n">
-        <v>306.5458440226943</v>
+        <v>414.0488324085872</v>
       </c>
       <c r="AD4" t="n">
-        <v>247681.6260059013</v>
+        <v>334541.4399067739</v>
       </c>
       <c r="AE4" t="n">
-        <v>338888.9276432699</v>
+        <v>457734.357007145</v>
       </c>
       <c r="AF4" t="n">
         <v>1.002247740005116e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.59259259259259</v>
       </c>
       <c r="AH4" t="n">
-        <v>306545.8440226943</v>
+        <v>414048.8324085872</v>
       </c>
     </row>
     <row r="5">
@@ -7497,28 +7497,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>242.336478145897</v>
+        <v>319.5120472244161</v>
       </c>
       <c r="AB5" t="n">
-        <v>331.5754605299348</v>
+        <v>437.1704788891334</v>
       </c>
       <c r="AC5" t="n">
-        <v>299.9303639461382</v>
+        <v>395.4475419565745</v>
       </c>
       <c r="AD5" t="n">
-        <v>242336.478145897</v>
+        <v>319512.047224416</v>
       </c>
       <c r="AE5" t="n">
-        <v>331575.4605299348</v>
+        <v>437170.4788891334</v>
       </c>
       <c r="AF5" t="n">
         <v>1.028320100718199e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.14120370370371</v>
       </c>
       <c r="AH5" t="n">
-        <v>299930.3639461382</v>
+        <v>395447.5419565745</v>
       </c>
     </row>
     <row r="6">
@@ -7603,28 +7603,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>242.6585599295851</v>
+        <v>319.8341290081041</v>
       </c>
       <c r="AB6" t="n">
-        <v>332.0161470356222</v>
+        <v>437.6111653948209</v>
       </c>
       <c r="AC6" t="n">
-        <v>300.3289919502301</v>
+        <v>395.8461699606666</v>
       </c>
       <c r="AD6" t="n">
-        <v>242658.5599295851</v>
+        <v>319834.1290081041</v>
       </c>
       <c r="AE6" t="n">
-        <v>332016.1470356222</v>
+        <v>437611.1653948209</v>
       </c>
       <c r="AF6" t="n">
         <v>1.028213496439583e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.14120370370371</v>
       </c>
       <c r="AH6" t="n">
-        <v>300328.9919502301</v>
+        <v>395846.1699606666</v>
       </c>
     </row>
   </sheetData>
@@ -7900,28 +7900,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>461.8374624850119</v>
+        <v>598.5171521598087</v>
       </c>
       <c r="AB2" t="n">
-        <v>631.9063910028557</v>
+        <v>818.9175722982532</v>
       </c>
       <c r="AC2" t="n">
-        <v>571.5981319317324</v>
+        <v>740.7612285561386</v>
       </c>
       <c r="AD2" t="n">
-        <v>461837.462485012</v>
+        <v>598517.1521598087</v>
       </c>
       <c r="AE2" t="n">
-        <v>631906.3910028557</v>
+        <v>818917.5722982532</v>
       </c>
       <c r="AF2" t="n">
         <v>5.780619439998244e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.71990740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>571598.1319317324</v>
+        <v>740761.2285561386</v>
       </c>
     </row>
     <row r="3">
@@ -8006,28 +8006,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>316.7773538846315</v>
+        <v>414.3383838446391</v>
       </c>
       <c r="AB3" t="n">
-        <v>433.4287508154849</v>
+        <v>566.9160560956417</v>
       </c>
       <c r="AC3" t="n">
-        <v>392.0629191587267</v>
+        <v>512.8103833735548</v>
       </c>
       <c r="AD3" t="n">
-        <v>316777.3538846315</v>
+        <v>414338.3838446391</v>
       </c>
       <c r="AE3" t="n">
-        <v>433428.7508154849</v>
+        <v>566916.0560956417</v>
       </c>
       <c r="AF3" t="n">
         <v>7.839104183222619e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.43981481481482</v>
       </c>
       <c r="AH3" t="n">
-        <v>392062.9191587267</v>
+        <v>512810.3833735548</v>
       </c>
     </row>
     <row r="4">
@@ -8112,28 +8112,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>278.8252132278505</v>
+        <v>376.4193975767816</v>
       </c>
       <c r="AB4" t="n">
-        <v>381.5009576385997</v>
+        <v>515.0336262163502</v>
       </c>
       <c r="AC4" t="n">
-        <v>345.091041681528</v>
+        <v>465.8795397844953</v>
       </c>
       <c r="AD4" t="n">
-        <v>278825.2132278505</v>
+        <v>376419.3975767816</v>
       </c>
       <c r="AE4" t="n">
-        <v>381500.9576385997</v>
+        <v>515033.6262163501</v>
       </c>
       <c r="AF4" t="n">
         <v>8.618667542500073e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.58796296296296</v>
       </c>
       <c r="AH4" t="n">
-        <v>345091.041681528</v>
+        <v>465879.5397844953</v>
       </c>
     </row>
     <row r="5">
@@ -8218,28 +8218,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>259.4217225326871</v>
+        <v>347.2872373236277</v>
       </c>
       <c r="AB5" t="n">
-        <v>354.9522456478826</v>
+        <v>475.1737193377809</v>
       </c>
       <c r="AC5" t="n">
-        <v>321.0761015018535</v>
+        <v>429.8238064746861</v>
       </c>
       <c r="AD5" t="n">
-        <v>259421.722532687</v>
+        <v>347287.2373236277</v>
       </c>
       <c r="AE5" t="n">
-        <v>354952.2456478826</v>
+        <v>475173.719337781</v>
       </c>
       <c r="AF5" t="n">
         <v>9.029423089823143e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.74305555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>321076.1015018536</v>
+        <v>429823.8064746861</v>
       </c>
     </row>
     <row r="6">
@@ -8324,28 +8324,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>251.9777429080801</v>
+        <v>339.7417724725387</v>
       </c>
       <c r="AB6" t="n">
-        <v>344.7670643201293</v>
+        <v>464.8496814461055</v>
       </c>
       <c r="AC6" t="n">
-        <v>311.8629795851328</v>
+        <v>420.485080269514</v>
       </c>
       <c r="AD6" t="n">
-        <v>251977.7429080801</v>
+        <v>339741.7724725388</v>
       </c>
       <c r="AE6" t="n">
-        <v>344767.0643201293</v>
+        <v>464849.6814461055</v>
       </c>
       <c r="AF6" t="n">
         <v>9.310597514027105e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.21064814814815</v>
       </c>
       <c r="AH6" t="n">
-        <v>311862.9795851329</v>
+        <v>420485.0802695139</v>
       </c>
     </row>
     <row r="7">
@@ -8430,28 +8430,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>252.3285658562401</v>
+        <v>340.0925954206987</v>
       </c>
       <c r="AB7" t="n">
-        <v>345.2470757550177</v>
+        <v>465.3296928809941</v>
       </c>
       <c r="AC7" t="n">
-        <v>312.2971794023759</v>
+        <v>420.9192800867571</v>
       </c>
       <c r="AD7" t="n">
-        <v>252328.5658562401</v>
+        <v>340092.5954206988</v>
       </c>
       <c r="AE7" t="n">
-        <v>345247.0757550177</v>
+        <v>465329.6928809941</v>
       </c>
       <c r="AF7" t="n">
         <v>9.292461694445265e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.24537037037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>312297.1794023759</v>
+        <v>420919.280086757</v>
       </c>
     </row>
   </sheetData>
@@ -8727,28 +8727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>306.054666191571</v>
+        <v>410.6703428463525</v>
       </c>
       <c r="AB2" t="n">
-        <v>418.757496462245</v>
+        <v>561.8972805792381</v>
       </c>
       <c r="AC2" t="n">
-        <v>378.7918687297251</v>
+        <v>508.2705927485412</v>
       </c>
       <c r="AD2" t="n">
-        <v>306054.666191571</v>
+        <v>410670.3428463525</v>
       </c>
       <c r="AE2" t="n">
-        <v>418757.496462245</v>
+        <v>561897.2805792381</v>
       </c>
       <c r="AF2" t="n">
         <v>9.374270281736262e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.30787037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>378791.8687297251</v>
+        <v>508270.5927485412</v>
       </c>
     </row>
     <row r="3">
@@ -8833,28 +8833,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>236.5732706033284</v>
+        <v>322.2509485061859</v>
       </c>
       <c r="AB3" t="n">
-        <v>323.6899857154241</v>
+        <v>440.9179644546479</v>
       </c>
       <c r="AC3" t="n">
-        <v>292.7974677805883</v>
+        <v>398.8373727593452</v>
       </c>
       <c r="AD3" t="n">
-        <v>236573.2706033284</v>
+        <v>322250.9485061859</v>
       </c>
       <c r="AE3" t="n">
-        <v>323689.9857154241</v>
+        <v>440917.9644546479</v>
       </c>
       <c r="AF3" t="n">
         <v>1.132727202170473e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.63888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>292797.4677805883</v>
+        <v>398837.3727593452</v>
       </c>
     </row>
     <row r="4">
@@ -8939,28 +8939,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>232.9243291138241</v>
+        <v>318.5005217901963</v>
       </c>
       <c r="AB4" t="n">
-        <v>318.6973429895496</v>
+        <v>435.7864651646814</v>
       </c>
       <c r="AC4" t="n">
-        <v>288.2813158692516</v>
+        <v>394.1956165595087</v>
       </c>
       <c r="AD4" t="n">
-        <v>232924.3291138241</v>
+        <v>318500.5217901963</v>
       </c>
       <c r="AE4" t="n">
-        <v>318697.3429895496</v>
+        <v>435786.4651646814</v>
       </c>
       <c r="AF4" t="n">
         <v>1.15813210285299e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.24537037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>288281.3158692516</v>
+        <v>394195.6165595087</v>
       </c>
     </row>
   </sheetData>
@@ -9236,28 +9236,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>257.3681158525518</v>
+        <v>351.2759643125379</v>
       </c>
       <c r="AB2" t="n">
-        <v>352.1424103892224</v>
+        <v>480.6312715742231</v>
       </c>
       <c r="AC2" t="n">
-        <v>318.5344329767573</v>
+        <v>434.7604975854049</v>
       </c>
       <c r="AD2" t="n">
-        <v>257368.1158525518</v>
+        <v>351275.9643125379</v>
       </c>
       <c r="AE2" t="n">
-        <v>352142.4103892224</v>
+        <v>480631.2715742231</v>
       </c>
       <c r="AF2" t="n">
         <v>1.179623195211641e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.25925925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>318534.4329767573</v>
+        <v>434760.497585405</v>
       </c>
     </row>
     <row r="3">
@@ -9342,28 +9342,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>225.0728491450787</v>
+        <v>309.6812494629028</v>
       </c>
       <c r="AB3" t="n">
-        <v>307.9546017134678</v>
+        <v>423.7195476876432</v>
       </c>
       <c r="AC3" t="n">
-        <v>278.5638467430236</v>
+        <v>383.280348750454</v>
       </c>
       <c r="AD3" t="n">
-        <v>225072.8491450787</v>
+        <v>309681.2494629028</v>
       </c>
       <c r="AE3" t="n">
-        <v>307954.6017134678</v>
+        <v>423719.5476876431</v>
       </c>
       <c r="AF3" t="n">
         <v>1.296584669899071e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.52314814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>278563.8467430236</v>
+        <v>383280.348750454</v>
       </c>
     </row>
   </sheetData>
@@ -16396,28 +16396,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>229.8506770715528</v>
+        <v>313.5370640227219</v>
       </c>
       <c r="AB2" t="n">
-        <v>314.4918366653583</v>
+        <v>428.9952432749206</v>
       </c>
       <c r="AC2" t="n">
-        <v>284.4771771661746</v>
+        <v>388.052539355367</v>
       </c>
       <c r="AD2" t="n">
-        <v>229850.6770715528</v>
+        <v>313537.064022722</v>
       </c>
       <c r="AE2" t="n">
-        <v>314491.8366653583</v>
+        <v>428995.2432749206</v>
       </c>
       <c r="AF2" t="n">
         <v>1.407105170308688e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.125</v>
       </c>
       <c r="AH2" t="n">
-        <v>284477.1771661746</v>
+        <v>388052.539355367</v>
       </c>
     </row>
     <row r="3">
@@ -16502,28 +16502,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>219.9319787155196</v>
+        <v>312.9233220544837</v>
       </c>
       <c r="AB3" t="n">
-        <v>300.9206359925519</v>
+        <v>428.1554944375923</v>
       </c>
       <c r="AC3" t="n">
-        <v>272.2011928382768</v>
+        <v>387.2929349684784</v>
       </c>
       <c r="AD3" t="n">
-        <v>219931.9787155196</v>
+        <v>312923.3220544837</v>
       </c>
       <c r="AE3" t="n">
-        <v>300920.6359925519</v>
+        <v>428155.4944375923</v>
       </c>
       <c r="AF3" t="n">
         <v>1.418984218123687e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.97453703703703</v>
       </c>
       <c r="AH3" t="n">
-        <v>272201.1928382768</v>
+        <v>387292.9349684784</v>
       </c>
     </row>
   </sheetData>
@@ -16799,28 +16799,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>238.4293768526887</v>
+        <v>329.5392115668768</v>
       </c>
       <c r="AB2" t="n">
-        <v>326.2295921714262</v>
+        <v>450.8900875097584</v>
       </c>
       <c r="AC2" t="n">
-        <v>295.0946977607905</v>
+        <v>407.8577703860386</v>
       </c>
       <c r="AD2" t="n">
-        <v>238429.3768526887</v>
+        <v>329539.2115668767</v>
       </c>
       <c r="AE2" t="n">
-        <v>326229.5921714262</v>
+        <v>450890.0875097584</v>
       </c>
       <c r="AF2" t="n">
         <v>1.680100159998007e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.08101851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>295094.6977607905</v>
+        <v>407857.7703860386</v>
       </c>
     </row>
   </sheetData>
@@ -17096,28 +17096,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>358.0134011215756</v>
+        <v>473.458623428182</v>
       </c>
       <c r="AB2" t="n">
-        <v>489.8497298510828</v>
+        <v>647.8069760947379</v>
       </c>
       <c r="AC2" t="n">
-        <v>443.0991591425085</v>
+        <v>585.9811874990565</v>
       </c>
       <c r="AD2" t="n">
-        <v>358013.4011215756</v>
+        <v>473458.623428182</v>
       </c>
       <c r="AE2" t="n">
-        <v>489849.7298510828</v>
+        <v>647806.9760947379</v>
       </c>
       <c r="AF2" t="n">
         <v>7.694654347472051e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.55324074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>443099.1591425085</v>
+        <v>585981.1874990566</v>
       </c>
     </row>
     <row r="3">
@@ -17202,28 +17202,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>264.8517782622389</v>
+        <v>361.0219647656299</v>
       </c>
       <c r="AB3" t="n">
-        <v>362.3818874542071</v>
+        <v>493.9661793573385</v>
       </c>
       <c r="AC3" t="n">
-        <v>327.7966687217502</v>
+        <v>446.8227404853604</v>
       </c>
       <c r="AD3" t="n">
-        <v>264851.7782622389</v>
+        <v>361021.96476563</v>
       </c>
       <c r="AE3" t="n">
-        <v>362381.8874542071</v>
+        <v>493966.1793573385</v>
       </c>
       <c r="AF3" t="n">
         <v>9.734703124184354e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.62268518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>327796.6687217502</v>
+        <v>446822.7404853604</v>
       </c>
     </row>
     <row r="4">
@@ -17308,28 +17308,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>242.460340130823</v>
+        <v>328.9427716342955</v>
       </c>
       <c r="AB4" t="n">
-        <v>331.7449339621156</v>
+        <v>450.0740120809278</v>
       </c>
       <c r="AC4" t="n">
-        <v>300.083663071809</v>
+        <v>407.1195800507667</v>
       </c>
       <c r="AD4" t="n">
-        <v>242460.340130823</v>
+        <v>328942.7716342955</v>
       </c>
       <c r="AE4" t="n">
-        <v>331744.9339621156</v>
+        <v>450074.0120809278</v>
       </c>
       <c r="AF4" t="n">
         <v>1.043872978215937e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.36111111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>300083.663071809</v>
+        <v>407119.5800507667</v>
       </c>
     </row>
     <row r="5">
@@ -17414,28 +17414,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>240.3752422232555</v>
+        <v>326.857673726728</v>
       </c>
       <c r="AB5" t="n">
-        <v>328.8920110169557</v>
+        <v>447.2210891357665</v>
       </c>
       <c r="AC5" t="n">
-        <v>297.5030190884319</v>
+        <v>404.5389360673891</v>
       </c>
       <c r="AD5" t="n">
-        <v>240375.2422232555</v>
+        <v>326857.673726728</v>
       </c>
       <c r="AE5" t="n">
-        <v>328892.0110169557</v>
+        <v>447221.0891357666</v>
       </c>
       <c r="AF5" t="n">
         <v>1.054755952577428e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.1875</v>
       </c>
       <c r="AH5" t="n">
-        <v>297503.0190884318</v>
+        <v>404538.9360673891</v>
       </c>
     </row>
   </sheetData>
@@ -17711,28 +17711,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>437.0096436996777</v>
+        <v>573.2840813823358</v>
       </c>
       <c r="AB2" t="n">
-        <v>597.9358740147007</v>
+        <v>784.3925716559982</v>
       </c>
       <c r="AC2" t="n">
-        <v>540.8697134070068</v>
+        <v>709.5312455190376</v>
       </c>
       <c r="AD2" t="n">
-        <v>437009.6436996777</v>
+        <v>573284.0813823357</v>
       </c>
       <c r="AE2" t="n">
-        <v>597935.8740147008</v>
+        <v>784392.5716559981</v>
       </c>
       <c r="AF2" t="n">
         <v>6.120172877080661e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.75925925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>540869.7134070068</v>
+        <v>709531.2455190376</v>
       </c>
     </row>
     <row r="3">
@@ -17817,28 +17817,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>309.9946969862756</v>
+        <v>407.2906651081705</v>
       </c>
       <c r="AB3" t="n">
-        <v>424.1484204174507</v>
+        <v>557.2730563969988</v>
       </c>
       <c r="AC3" t="n">
-        <v>383.6682904688553</v>
+        <v>504.0876980321152</v>
       </c>
       <c r="AD3" t="n">
-        <v>309994.6969862756</v>
+        <v>407290.6651081705</v>
       </c>
       <c r="AE3" t="n">
-        <v>424148.4204174507</v>
+        <v>557273.0563969987</v>
       </c>
       <c r="AF3" t="n">
         <v>8.169286106050978e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.0462962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>383668.2904688553</v>
+        <v>504087.6980321152</v>
       </c>
     </row>
     <row r="4">
@@ -17923,28 +17923,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>273.2830330563686</v>
+        <v>360.8426723853034</v>
       </c>
       <c r="AB4" t="n">
-        <v>373.9179022242453</v>
+        <v>493.7208636127542</v>
       </c>
       <c r="AC4" t="n">
-        <v>338.2317024330343</v>
+        <v>446.6008373311363</v>
       </c>
       <c r="AD4" t="n">
-        <v>273283.0330563686</v>
+        <v>360842.6723853034</v>
       </c>
       <c r="AE4" t="n">
-        <v>373917.9022242452</v>
+        <v>493720.8636127542</v>
       </c>
       <c r="AF4" t="n">
         <v>8.933635620130362e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.33333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>338231.7024330343</v>
+        <v>446600.8373311363</v>
       </c>
     </row>
     <row r="5">
@@ -18029,28 +18029,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>254.4984674735989</v>
+        <v>342.1254266102414</v>
       </c>
       <c r="AB5" t="n">
-        <v>348.2160308771896</v>
+        <v>468.1111021967089</v>
       </c>
       <c r="AC5" t="n">
-        <v>314.9827816146434</v>
+        <v>423.4352356011125</v>
       </c>
       <c r="AD5" t="n">
-        <v>254498.4674735989</v>
+        <v>342125.4266102414</v>
       </c>
       <c r="AE5" t="n">
-        <v>348216.0308771896</v>
+        <v>468111.102196709</v>
       </c>
       <c r="AF5" t="n">
         <v>9.321187141615636e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.56944444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>314982.7816146434</v>
+        <v>423435.2356011125</v>
       </c>
     </row>
     <row r="6">
@@ -18135,28 +18135,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>249.8193837879744</v>
+        <v>337.3448576981316</v>
       </c>
       <c r="AB6" t="n">
-        <v>341.8139021519181</v>
+        <v>461.5701169073447</v>
       </c>
       <c r="AC6" t="n">
-        <v>309.1916630694656</v>
+        <v>417.5185127674347</v>
       </c>
       <c r="AD6" t="n">
-        <v>249819.3837879744</v>
+        <v>337344.8576981316</v>
       </c>
       <c r="AE6" t="n">
-        <v>341813.902151918</v>
+        <v>461570.1169073447</v>
       </c>
       <c r="AF6" t="n">
         <v>9.520551907505649e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.19907407407407</v>
       </c>
       <c r="AH6" t="n">
-        <v>309191.6630694655</v>
+        <v>417518.5127674348</v>
       </c>
     </row>
     <row r="7">
@@ -18241,28 +18241,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>250.0499567838416</v>
+        <v>337.5754306939988</v>
       </c>
       <c r="AB7" t="n">
-        <v>342.129382297026</v>
+        <v>461.885597052453</v>
       </c>
       <c r="AC7" t="n">
-        <v>309.4770342323037</v>
+        <v>417.803883930273</v>
       </c>
       <c r="AD7" t="n">
-        <v>250049.9567838416</v>
+        <v>337575.4306939988</v>
       </c>
       <c r="AE7" t="n">
-        <v>342129.382297026</v>
+        <v>461885.597052453</v>
       </c>
       <c r="AF7" t="n">
         <v>9.517014562475661e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.21064814814815</v>
       </c>
       <c r="AH7" t="n">
-        <v>309477.0342323037</v>
+        <v>417803.883930273</v>
       </c>
     </row>
   </sheetData>
@@ -18538,28 +18538,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>254.0743561234932</v>
+        <v>362.3962229975613</v>
       </c>
       <c r="AB2" t="n">
-        <v>347.635743017503</v>
+        <v>495.8465000982614</v>
       </c>
       <c r="AC2" t="n">
-        <v>314.457875613846</v>
+        <v>448.5236060538163</v>
       </c>
       <c r="AD2" t="n">
-        <v>254074.3561234932</v>
+        <v>362396.2229975613</v>
       </c>
       <c r="AE2" t="n">
-        <v>347635.7430175031</v>
+        <v>495846.5000982614</v>
       </c>
       <c r="AF2" t="n">
         <v>1.755086908410836e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.63888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>314457.875613846</v>
+        <v>448523.6060538163</v>
       </c>
     </row>
   </sheetData>
@@ -18835,28 +18835,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>267.0557747555745</v>
+        <v>370.8616303836728</v>
       </c>
       <c r="AB2" t="n">
-        <v>365.3974926898519</v>
+        <v>507.4292439513547</v>
       </c>
       <c r="AC2" t="n">
-        <v>330.5244688261335</v>
+        <v>459.0009090900535</v>
       </c>
       <c r="AD2" t="n">
-        <v>267055.7747555745</v>
+        <v>370861.6303836728</v>
       </c>
       <c r="AE2" t="n">
-        <v>365397.4926898519</v>
+        <v>507429.2439513548</v>
       </c>
       <c r="AF2" t="n">
         <v>1.0871814670465e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.91898148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>330524.4688261335</v>
+        <v>459000.9090900535</v>
       </c>
     </row>
     <row r="3">
@@ -18941,28 +18941,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>227.8604478607573</v>
+        <v>312.7469333789056</v>
       </c>
       <c r="AB3" t="n">
-        <v>311.7687172564331</v>
+        <v>427.9141516699473</v>
       </c>
       <c r="AC3" t="n">
-        <v>282.0139484517144</v>
+        <v>387.0746256158507</v>
       </c>
       <c r="AD3" t="n">
-        <v>227860.4478607573</v>
+        <v>312746.9333789056</v>
       </c>
       <c r="AE3" t="n">
-        <v>311768.7172564332</v>
+        <v>427914.1516699473</v>
       </c>
       <c r="AF3" t="n">
         <v>1.243329881902099e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.41898148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>282013.9484517144</v>
+        <v>387074.6256158507</v>
       </c>
     </row>
     <row r="4">
@@ -19047,28 +19047,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>228.2789785571711</v>
+        <v>313.1654640753194</v>
       </c>
       <c r="AB4" t="n">
-        <v>312.3413694195374</v>
+        <v>428.4868038330519</v>
       </c>
       <c r="AC4" t="n">
-        <v>282.5319474960945</v>
+        <v>387.5926246602309</v>
       </c>
       <c r="AD4" t="n">
-        <v>228278.9785571711</v>
+        <v>313165.4640753195</v>
       </c>
       <c r="AE4" t="n">
-        <v>312341.3694195374</v>
+        <v>428486.8038330519</v>
       </c>
       <c r="AF4" t="n">
         <v>1.243011746349301e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.43055555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>282531.9474960945</v>
+        <v>387592.6246602309</v>
       </c>
     </row>
   </sheetData>
@@ -19344,28 +19344,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>316.0278856086745</v>
+        <v>430.6189301605793</v>
       </c>
       <c r="AB2" t="n">
-        <v>432.4032952561139</v>
+        <v>589.1918178121231</v>
       </c>
       <c r="AC2" t="n">
-        <v>391.135331638706</v>
+        <v>532.9601776560434</v>
       </c>
       <c r="AD2" t="n">
-        <v>316027.8856086746</v>
+        <v>430618.9301605793</v>
       </c>
       <c r="AE2" t="n">
-        <v>432403.2952561139</v>
+        <v>589191.8178121231</v>
       </c>
       <c r="AF2" t="n">
         <v>8.772181837264665e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.99074074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>391135.331638706</v>
+        <v>532960.1776560433</v>
       </c>
     </row>
     <row r="3">
@@ -19450,28 +19450,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>242.7759581918249</v>
+        <v>338.2571068454882</v>
       </c>
       <c r="AB3" t="n">
-        <v>332.1767765172643</v>
+        <v>462.8182964363501</v>
       </c>
       <c r="AC3" t="n">
-        <v>300.4742911795893</v>
+        <v>418.6475677940228</v>
       </c>
       <c r="AD3" t="n">
-        <v>242775.9581918249</v>
+        <v>338257.1068454882</v>
       </c>
       <c r="AE3" t="n">
-        <v>332176.7765172643</v>
+        <v>462818.2964363501</v>
       </c>
       <c r="AF3" t="n">
         <v>1.074414391887457e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.95138888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>300474.2911795893</v>
+        <v>418647.5677940228</v>
       </c>
     </row>
     <row r="4">
@@ -19556,28 +19556,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>235.4756874336727</v>
+        <v>321.3687337492901</v>
       </c>
       <c r="AB4" t="n">
-        <v>322.1882240007499</v>
+        <v>439.7108793036946</v>
       </c>
       <c r="AC4" t="n">
-        <v>291.4390320962264</v>
+        <v>397.7454901210444</v>
       </c>
       <c r="AD4" t="n">
-        <v>235475.6874336727</v>
+        <v>321368.7337492901</v>
       </c>
       <c r="AE4" t="n">
-        <v>322188.2240007499</v>
+        <v>439710.8793036946</v>
       </c>
       <c r="AF4" t="n">
         <v>1.119639210963756e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.22222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>291439.0320962264</v>
+        <v>397745.4901210445</v>
       </c>
     </row>
     <row r="5">
@@ -19662,28 +19662,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>235.677185538414</v>
+        <v>321.5702318540314</v>
       </c>
       <c r="AB5" t="n">
-        <v>322.4639225971257</v>
+        <v>439.9865779000706</v>
       </c>
       <c r="AC5" t="n">
-        <v>291.6884184055095</v>
+        <v>397.9948764303278</v>
       </c>
       <c r="AD5" t="n">
-        <v>235677.185538414</v>
+        <v>321570.2318540314</v>
       </c>
       <c r="AE5" t="n">
-        <v>322463.9225971257</v>
+        <v>439986.5779000706</v>
       </c>
       <c r="AF5" t="n">
         <v>1.120322415673457e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.21064814814815</v>
       </c>
       <c r="AH5" t="n">
-        <v>291688.4184055096</v>
+        <v>397994.8764303278</v>
       </c>
     </row>
   </sheetData>
